--- a/개발자들_벌금.xlsx
+++ b/개발자들_벌금.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800ED19C-9F0A-4CFC-B6B5-84EF3FA59F02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39484E1E-2578-4848-BCE9-C740D87B75E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>이름         날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,21 +170,6 @@
   </si>
   <si>
     <t>사람별 합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA74D26-CD7D-479D-8A2A-94EC3FAA8DAA}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -823,7 +808,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="13">
-        <f t="shared" ref="S2:S20" si="0">SUM(C2:R2)</f>
+        <f t="shared" ref="S2:S19" si="0">SUM(C2:R2)</f>
         <v>0</v>
       </c>
     </row>

--- a/개발자들_벌금.xlsx
+++ b/개발자들_벌금.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39484E1E-2578-4848-BCE9-C740D87B75E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA50AD7-8F06-4D67-B646-B9BB1F717E41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA74D26-CD7D-479D-8A2A-94EC3FAA8DAA}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -871,7 +871,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>1000</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -887,7 +889,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1342,7 +1344,7 @@
       </c>
       <c r="E22" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="1"/>
@@ -1398,7 +1400,7 @@
       </c>
       <c r="S22" s="13">
         <f>SUM(B22:R22)</f>
-        <v>21000</v>
+        <v>22000</v>
       </c>
     </row>
   </sheetData>

--- a/개발자들_벌금.xlsx
+++ b/개발자들_벌금.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA50AD7-8F06-4D67-B646-B9BB1F717E41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E9687B-430C-46F4-8353-F2F1704595DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA74D26-CD7D-479D-8A2A-94EC3FAA8DAA}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1251,7 +1251,9 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1000</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1265,7 +1267,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1281,7 +1283,9 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>5000</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1295,7 +1299,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="13">
         <f>SUM(B20:R20)</f>
-        <v>8000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1352,7 +1356,7 @@
       </c>
       <c r="G22" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="1"/>
@@ -1400,7 +1404,7 @@
       </c>
       <c r="S22" s="13">
         <f>SUM(B22:R22)</f>
-        <v>22000</v>
+        <v>28000</v>
       </c>
     </row>
   </sheetData>
